--- a/static/max_stock/my_files/stocks_sales.xlsx
+++ b/static/max_stock/my_files/stocks_sales.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02A232C-CF98-4415-8DFE-CF6B27B92952}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D391CE2-DEA0-40BC-BBE3-E5DD2E549C3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SKU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,19 +46,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12KK-QT-GM1203BR-S-GCR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12KK-QT-GM1203Y-S-GCR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ATL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A12KK-QT-GM1203BR-S-GCR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A12KK-QT-GM1203Y-S-GCR1</t>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,18 +393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,15 +424,21 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -444,13 +458,19 @@
       <c r="G2">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
         <v>43430</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -470,7 +490,13 @@
       <c r="G3">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
         <v>43431</v>
       </c>
     </row>
